--- a/biology/Zoologie/Fauvette_de_Chypre/Fauvette_de_Chypre.xlsx
+++ b/biology/Zoologie/Fauvette_de_Chypre/Fauvette_de_Chypre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curruca melanothorax
 La Fauvette de Chypre (Curruca melanothorax) est une espèce de fauvettes typiques vivant à Chypre.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme pour la plupart des espèces de Curruca, les plumages mâle et femelle sont distincts. Le mâle adulte est une fauvette typique présentant un dos gris, une tête noire, des bandes malaires blanches ("moustaches"), et, uniquement chez les fauvettes types, les parties inférieures sont fortement rayées de noir. La femelle est principalement grise au-dessus, avec une tête plus grise et aux reflets blanchâtres à la lumière.
 Le chant de la Fauvette de Chypre est rapide et sonore, semblable en cela à celui de la Fauvette sarde.
@@ -545,7 +559,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit passereau est un oiseau migrateur de courtes distances qui passe l'hiver en Égypte, Palestine et Jordanie.
 C'est un oiseau de pays sec, nichant dans les buissons souvent en pentes de collines.
@@ -579,10 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Comme la plupart des fauvettes, cet oiseau est insectivore mais peut aussi se nourrir de baies.
-Reproduction
-Il construit son nid dans de petits arbustes ou des ajoncs et y pond 3 à 5 œufs.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la plupart des fauvettes, cet oiseau est insectivore mais peut aussi se nourrir de baies.
 </t>
         </is>
       </c>
@@ -608,12 +627,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il construit son nid dans de petits arbustes ou des ajoncs et y pond 3 à 5 œufs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fauvette_de_Chypre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fauvette_de_Chypre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fauvette de Chypre faisait anciennement partie du genre Sylvia, mais a depuis été reclassée dans le genre Curruca après que celui-ci a été séparé de Sylvia[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fauvette de Chypre faisait anciennement partie du genre Sylvia, mais a depuis été reclassée dans le genre Curruca après que celui-ci a été séparé de Sylvia.
 </t>
         </is>
       </c>
